--- a/tests/polybench-c-4.0/results/scop-count.xlsx
+++ b/tests/polybench-c-4.0/results/scop-count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="#-of-scops" sheetId="10" r:id="rId1"/>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,19 +319,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -767,8 +756,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -801,6 +802,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,13 +815,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="447">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1034,6 +1034,12 @@
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1251,6 +1257,12 @@
     <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1767,88 +1779,88 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.166666666666667</c:v>
+                  <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.166666666666667</c:v>
+                  <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>1.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>1.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.666666666666667</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,11 +1875,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090103848"/>
-        <c:axId val="2090106920"/>
+        <c:axId val="2066618584"/>
+        <c:axId val="2068361432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090103848"/>
+        <c:axId val="2066618584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090106920"/>
+        <c:crossAx val="2068361432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1895,7 +1907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090106920"/>
+        <c:axId val="2068361432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090103848"/>
+        <c:crossAx val="2066618584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2504,91 +2516,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.444444444444444</c:v>
+                  <c:v>1.555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>2.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>2.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0</c:v>
+                  <c:v>3.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.5</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,11 +2615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2089907800"/>
-        <c:axId val="2089910872"/>
+        <c:axId val="2069091160"/>
+        <c:axId val="2069094168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089907800"/>
+        <c:axId val="2069091160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089910872"/>
+        <c:crossAx val="2069094168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2635,7 +2647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089910872"/>
+        <c:axId val="2069094168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089907800"/>
+        <c:crossAx val="2069091160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3244,91 +3256,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.915094339622642</c:v>
+                  <c:v>1.018867924528302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.826086956521739</c:v>
+                  <c:v>1.065217391304348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.48421052631579</c:v>
+                  <c:v>1.578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.561904761904762</c:v>
+                  <c:v>1.647619047619047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.076923076923077</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.696969696969697</c:v>
+                  <c:v>1.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.035087719298246</c:v>
+                  <c:v>1.842105263157895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.013698630136986</c:v>
+                  <c:v>1.876712328767123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.614583333333333</c:v>
+                  <c:v>1.708333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.967741935483871</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.089430894308943</c:v>
+                  <c:v>2.195121951219512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.254901960784314</c:v>
+                  <c:v>2.215686274509804</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.28813559322034</c:v>
+                  <c:v>2.406779661016949</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.194444444444445</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.807692307692308</c:v>
+                  <c:v>2.519230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.177777777777778</c:v>
+                  <c:v>1.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.166666666666666</c:v>
+                  <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.620689655172414</c:v>
+                  <c:v>3.206896551724138</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.967741935483871</c:v>
+                  <c:v>4.387096774193548</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.521739130434783</c:v>
+                  <c:v>5.434782608695652</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.363636363636363</c:v>
+                  <c:v>6.090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0</c:v>
+                  <c:v>7.282051282051282</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.454545454545455</c:v>
+                  <c:v>7.93939393939394</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.173913043478261</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.833333333333332</c:v>
+                  <c:v>8.208333333333334</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.818181818181818</c:v>
+                  <c:v>9.181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.63636363636364</c:v>
+                  <c:v>13.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.81818181818182</c:v>
+                  <c:v>16.81818181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,11 +3355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2089963528"/>
-        <c:axId val="2089966600"/>
+        <c:axId val="2065734200"/>
+        <c:axId val="2065737272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089963528"/>
+        <c:axId val="2065734200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089966600"/>
+        <c:crossAx val="2065737272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3375,7 +3387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089966600"/>
+        <c:axId val="2065737272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -3428,7 +3440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089963528"/>
+        <c:crossAx val="2065734200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,7 +4000,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -4006,16 +4018,16 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -4084,11 +4096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090765208"/>
-        <c:axId val="2090768280"/>
+        <c:axId val="2068453560"/>
+        <c:axId val="2068456568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090765208"/>
+        <c:axId val="2068453560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4108,7 +4120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090768280"/>
+        <c:crossAx val="2068456568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4116,7 +4128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090768280"/>
+        <c:axId val="2068456568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4168,7 +4180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090765208"/>
+        <c:crossAx val="2068453560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4734,19 +4746,19 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.0</c:v>
@@ -4755,7 +4767,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -4824,11 +4836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2096910040"/>
-        <c:axId val="2096913112"/>
+        <c:axId val="2068510440"/>
+        <c:axId val="2068513448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2096910040"/>
+        <c:axId val="2068510440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4848,7 +4860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096913112"/>
+        <c:crossAx val="2068513448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4856,7 +4868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096913112"/>
+        <c:axId val="2068513448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096910040"/>
+        <c:crossAx val="2068510440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5474,28 +5486,28 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.763888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.272727272727272</c:v>
+                  <c:v>3.090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.090909090909091</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -5564,11 +5576,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2077287720"/>
-        <c:axId val="2077290792"/>
+        <c:axId val="2068567848"/>
+        <c:axId val="2068570936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2077287720"/>
+        <c:axId val="2068567848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,7 +5600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077290792"/>
+        <c:crossAx val="2068570936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5596,7 +5608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077290792"/>
+        <c:axId val="2068570936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -5649,7 +5661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077287720"/>
+        <c:crossAx val="2068567848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6250,7 +6262,7 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6270,58 +6282,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
@@ -6366,10 +6378,10 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>3</v>
       </c>
       <c r="E6" s="3">
@@ -6380,10 +6392,10 @@
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>4</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>3</v>
       </c>
       <c r="J6" s="3">
@@ -6393,10 +6405,10 @@
       <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="16">
         <v>4</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6">
         <v>3</v>
       </c>
       <c r="O6" s="6">
@@ -6408,10 +6420,10 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>6</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>6</v>
       </c>
       <c r="E7" s="3">
@@ -6422,10 +6434,10 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>5</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>6</v>
       </c>
       <c r="J7" s="3">
@@ -6435,25 +6447,25 @@
       <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>6</v>
       </c>
-      <c r="N7" s="22">
-        <v>7</v>
+      <c r="N7">
+        <v>8</v>
       </c>
       <c r="O7" s="6">
         <f>N7/M7</f>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>5</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>5</v>
       </c>
       <c r="E8" s="3">
@@ -6464,10 +6476,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>5</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>3</v>
       </c>
       <c r="J8" s="3">
@@ -6477,25 +6489,25 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>5</v>
       </c>
-      <c r="N8" s="22">
-        <v>4</v>
+      <c r="N8">
+        <v>5</v>
       </c>
       <c r="O8" s="6">
         <f>N8/M8</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>3</v>
       </c>
       <c r="E9" s="3">
@@ -6506,10 +6518,10 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>4</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>3</v>
       </c>
       <c r="J9" s="3">
@@ -6519,25 +6531,25 @@
       <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>3</v>
       </c>
-      <c r="N9" s="22">
-        <v>2</v>
+      <c r="N9">
+        <v>3</v>
       </c>
       <c r="O9" s="6">
         <f>N9/M9</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
       <c r="E10" s="3">
@@ -6548,10 +6560,10 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>3</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>3</v>
       </c>
       <c r="J10" s="3">
@@ -6561,25 +6573,25 @@
       <c r="L10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="18">
         <v>3</v>
       </c>
-      <c r="N10" s="22">
-        <v>2</v>
+      <c r="N10">
+        <v>3</v>
       </c>
       <c r="O10" s="6">
         <f>N10/M10</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>4</v>
       </c>
       <c r="E11" s="3">
@@ -6590,10 +6602,10 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>4</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>3</v>
       </c>
       <c r="J11" s="3">
@@ -6603,25 +6615,25 @@
       <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>4</v>
       </c>
-      <c r="N11" s="22">
-        <v>3</v>
+      <c r="N11">
+        <v>4</v>
       </c>
       <c r="O11" s="6">
         <f>N11/M11</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>3</v>
       </c>
       <c r="E12" s="3">
@@ -6632,10 +6644,10 @@
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>3</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <v>3</v>
       </c>
       <c r="J12" s="3">
@@ -6645,25 +6657,25 @@
       <c r="L12" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>3</v>
       </c>
-      <c r="N12" s="22">
-        <v>2</v>
+      <c r="N12">
+        <v>3</v>
       </c>
       <c r="O12" s="6">
         <f>N12/M12</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>6</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>7</v>
       </c>
       <c r="E13" s="3">
@@ -6674,10 +6686,10 @@
       <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>4</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>5</v>
       </c>
       <c r="J13" s="3">
@@ -6687,25 +6699,25 @@
       <c r="L13" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>6</v>
       </c>
-      <c r="N13" s="22">
-        <v>7</v>
+      <c r="N13">
+        <v>8</v>
       </c>
       <c r="O13" s="6">
         <f>N13/M13</f>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>4</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>5</v>
       </c>
       <c r="E14" s="3">
@@ -6716,10 +6728,10 @@
       <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <v>4</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>3</v>
       </c>
       <c r="J14" s="3">
@@ -6729,25 +6741,25 @@
       <c r="L14" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>4</v>
       </c>
-      <c r="N14" s="22">
-        <v>4</v>
+      <c r="N14">
+        <v>5</v>
       </c>
       <c r="O14" s="6">
         <f>N14/M14</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>4</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>5</v>
       </c>
       <c r="E15" s="3">
@@ -6758,10 +6770,10 @@
       <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <v>4</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>3</v>
       </c>
       <c r="J15" s="3">
@@ -6771,25 +6783,25 @@
       <c r="L15" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>4</v>
       </c>
-      <c r="N15" s="22">
-        <v>3</v>
+      <c r="N15">
+        <v>5</v>
       </c>
       <c r="O15" s="6">
         <f>N15/M15</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>3</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>4</v>
       </c>
       <c r="E16" s="3">
@@ -6800,10 +6812,10 @@
       <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>3</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>3</v>
       </c>
       <c r="J16" s="3">
@@ -6813,25 +6825,25 @@
       <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>3</v>
       </c>
-      <c r="N16" s="22">
-        <v>3</v>
+      <c r="N16">
+        <v>4</v>
       </c>
       <c r="O16" s="6">
         <f>N16/M16</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>5</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>7</v>
       </c>
       <c r="E17" s="3">
@@ -6842,10 +6854,10 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <v>5</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>3</v>
       </c>
       <c r="J17" s="3">
@@ -6855,25 +6867,25 @@
       <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>5</v>
       </c>
-      <c r="N17" s="22">
-        <v>4</v>
+      <c r="N17">
+        <v>7</v>
       </c>
       <c r="O17" s="6">
         <f>N17/M17</f>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>2</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>3</v>
       </c>
       <c r="E18" s="3">
@@ -6884,10 +6896,10 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="18">
         <v>2</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>3</v>
       </c>
       <c r="J18" s="3">
@@ -6897,25 +6909,25 @@
       <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <v>2</v>
       </c>
-      <c r="N18" s="22">
-        <v>2</v>
+      <c r="N18">
+        <v>3</v>
       </c>
       <c r="O18" s="6">
         <f>N18/M18</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>3</v>
       </c>
       <c r="E19" s="3">
@@ -6926,10 +6938,10 @@
       <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="18">
         <v>2</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>3</v>
       </c>
       <c r="J19" s="3">
@@ -6939,25 +6951,25 @@
       <c r="L19" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>2</v>
       </c>
-      <c r="N19" s="22">
-        <v>2</v>
+      <c r="N19">
+        <v>3</v>
       </c>
       <c r="O19" s="6">
         <f>N19/M19</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="18">
         <v>5</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>8</v>
       </c>
       <c r="E20" s="3">
@@ -6968,10 +6980,10 @@
       <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="18">
         <v>5</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>3</v>
       </c>
       <c r="J20" s="3">
@@ -6981,25 +6993,25 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="18">
         <v>5</v>
       </c>
-      <c r="N20" s="22">
-        <v>4</v>
+      <c r="N20">
+        <v>8</v>
       </c>
       <c r="O20" s="6">
         <f>N20/M20</f>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>6</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>10</v>
       </c>
       <c r="E21" s="3">
@@ -7010,10 +7022,10 @@
       <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="18">
         <v>4</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>5</v>
       </c>
       <c r="J21" s="3">
@@ -7023,25 +7035,25 @@
       <c r="L21" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="18">
         <v>6</v>
       </c>
-      <c r="N21" s="22">
-        <v>6</v>
+      <c r="N21">
+        <v>11</v>
       </c>
       <c r="O21" s="6">
         <f>N21/M21</f>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
         <v>3</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>5</v>
       </c>
       <c r="E22" s="3">
@@ -7052,10 +7064,10 @@
       <c r="G22" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="18">
         <v>2</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <v>3</v>
       </c>
       <c r="J22" s="3">
@@ -7065,25 +7077,25 @@
       <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="18">
         <v>3</v>
       </c>
-      <c r="N22" s="22">
-        <v>3</v>
+      <c r="N22">
+        <v>5</v>
       </c>
       <c r="O22" s="6">
         <f>N22/M22</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>3</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>5</v>
       </c>
       <c r="E23" s="3">
@@ -7094,10 +7106,10 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="18">
         <v>3</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>3</v>
       </c>
       <c r="J23" s="3">
@@ -7107,25 +7119,25 @@
       <c r="L23" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="18">
         <v>3</v>
       </c>
-      <c r="N23" s="22">
-        <v>4</v>
+      <c r="N23">
+        <v>5</v>
       </c>
       <c r="O23" s="6">
         <f>N23/M23</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>2</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>4</v>
       </c>
       <c r="E24" s="3">
@@ -7136,10 +7148,10 @@
       <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="18">
         <v>2</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <v>3</v>
       </c>
       <c r="J24" s="3">
@@ -7149,25 +7161,25 @@
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>2</v>
       </c>
-      <c r="N24" s="22">
-        <v>2</v>
+      <c r="N24">
+        <v>5</v>
       </c>
       <c r="O24" s="6">
         <f>N24/M24</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>2</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>4</v>
       </c>
       <c r="E25" s="3">
@@ -7178,10 +7190,10 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="18">
         <v>2</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>3</v>
       </c>
       <c r="J25" s="3">
@@ -7191,25 +7203,25 @@
       <c r="L25" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>2</v>
       </c>
-      <c r="N25" s="22">
-        <v>3</v>
+      <c r="N25">
+        <v>4</v>
       </c>
       <c r="O25" s="6">
         <f>N25/M25</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>3</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>6</v>
       </c>
       <c r="E26" s="3">
@@ -7220,10 +7232,10 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="18">
         <v>3</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>5</v>
       </c>
       <c r="J26" s="3">
@@ -7233,25 +7245,25 @@
       <c r="L26" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>3</v>
       </c>
-      <c r="N26" s="22">
-        <v>2</v>
+      <c r="N26">
+        <v>4</v>
       </c>
       <c r="O26" s="6">
         <f>N26/M26</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <v>2</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>4</v>
       </c>
       <c r="E27" s="3">
@@ -7262,10 +7274,10 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="18">
         <v>2</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <v>3</v>
       </c>
       <c r="J27" s="3">
@@ -7275,25 +7287,25 @@
       <c r="L27" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="18">
         <v>2</v>
       </c>
-      <c r="N27" s="22">
-        <v>1</v>
+      <c r="N27">
+        <v>4</v>
       </c>
       <c r="O27" s="6">
         <f>N27/M27</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>2</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="19">
         <v>5</v>
       </c>
       <c r="E28" s="3">
@@ -7304,10 +7316,10 @@
       <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="18">
         <v>2</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="19">
         <v>5</v>
       </c>
       <c r="J28" s="3">
@@ -7317,25 +7329,25 @@
       <c r="L28" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="18">
         <v>2</v>
       </c>
-      <c r="N28" s="22">
-        <v>1</v>
+      <c r="N28">
+        <v>4</v>
       </c>
       <c r="O28" s="6">
         <f>N28/M28</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>2</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="19">
         <v>5</v>
       </c>
       <c r="E29" s="3">
@@ -7346,10 +7358,10 @@
       <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="18">
         <v>2</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="19">
         <v>4</v>
       </c>
       <c r="J29" s="3">
@@ -7359,25 +7371,25 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="18">
         <v>2</v>
       </c>
-      <c r="N29" s="22">
-        <v>3</v>
+      <c r="N29">
+        <v>8</v>
       </c>
       <c r="O29" s="6">
         <f>N29/M29</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <v>2</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="19">
         <v>6</v>
       </c>
       <c r="E30" s="3">
@@ -7388,10 +7400,10 @@
       <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="18">
         <v>2</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="19">
         <v>3</v>
       </c>
       <c r="J30" s="3">
@@ -7401,25 +7413,25 @@
       <c r="L30" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="18">
         <v>2</v>
       </c>
-      <c r="N30" s="22">
-        <v>3</v>
+      <c r="N30">
+        <v>6</v>
       </c>
       <c r="O30" s="6">
         <f>N30/M30</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="21">
-        <v>1</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19">
         <v>3</v>
       </c>
       <c r="E31" s="3">
@@ -7430,10 +7442,10 @@
       <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
         <v>3</v>
       </c>
       <c r="J31" s="3">
@@ -7443,25 +7455,25 @@
       <c r="L31" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="21">
-        <v>1</v>
-      </c>
-      <c r="N31" s="22">
-        <v>1</v>
+      <c r="M31" s="18">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
       </c>
       <c r="O31" s="6">
         <f>N31/M31</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
         <v>3</v>
       </c>
       <c r="E32" s="3">
@@ -7472,10 +7484,10 @@
       <c r="G32" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="21">
-        <v>1</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="19">
         <v>3</v>
       </c>
       <c r="J32" s="3">
@@ -7485,25 +7497,25 @@
       <c r="L32" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="21">
-        <v>1</v>
-      </c>
-      <c r="N32" s="22">
-        <v>2</v>
+      <c r="M32" s="18">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
       </c>
       <c r="O32" s="6">
         <f>N32/M32</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19">
         <v>3</v>
       </c>
       <c r="E33" s="3">
@@ -7514,10 +7526,10 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="21">
-        <v>1</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="19">
         <v>3</v>
       </c>
       <c r="J33" s="3">
@@ -7527,25 +7539,25 @@
       <c r="L33" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="21">
-        <v>1</v>
-      </c>
-      <c r="N33" s="22">
-        <v>2</v>
+      <c r="M33" s="18">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
       </c>
       <c r="O33" s="6">
         <f>N33/M33</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="21">
-        <v>1</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
         <v>4</v>
       </c>
       <c r="E34" s="3">
@@ -7556,10 +7568,10 @@
       <c r="G34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="21">
-        <v>1</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19">
         <v>4</v>
       </c>
       <c r="J34" s="3">
@@ -7569,15 +7581,15 @@
       <c r="L34" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="21">
-        <v>1</v>
-      </c>
-      <c r="N34" s="22">
-        <v>3</v>
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
       </c>
       <c r="O34" s="6">
         <f>N34/M34</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -7645,7 +7657,7 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7665,58 +7677,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
@@ -7761,10 +7773,10 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -7775,10 +7787,10 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>5</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>5</v>
       </c>
       <c r="J6" s="3">
@@ -7788,25 +7800,25 @@
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="16">
         <v>4</v>
       </c>
-      <c r="N6" s="20">
-        <v>3</v>
+      <c r="N6">
+        <v>4</v>
       </c>
       <c r="O6" s="6">
         <f>N6/M6</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>6</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>6</v>
       </c>
       <c r="E7" s="3">
@@ -7817,10 +7829,10 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>6</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>6</v>
       </c>
       <c r="J7" s="3">
@@ -7830,25 +7842,25 @@
       <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>6</v>
       </c>
-      <c r="N7" s="22">
-        <v>5</v>
+      <c r="N7">
+        <v>6</v>
       </c>
       <c r="O7" s="6">
         <f>N7/M7</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>8</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>11</v>
       </c>
       <c r="E8" s="3">
@@ -7859,10 +7871,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>8</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>11</v>
       </c>
       <c r="J8" s="3">
@@ -7872,25 +7884,25 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>8</v>
       </c>
-      <c r="N8" s="22">
-        <v>10</v>
+      <c r="N8">
+        <v>11</v>
       </c>
       <c r="O8" s="6">
         <f>N8/M8</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>6</v>
       </c>
       <c r="E9" s="3">
@@ -7901,10 +7913,10 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>4</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>6</v>
       </c>
       <c r="J9" s="3">
@@ -7914,25 +7926,25 @@
       <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>4</v>
       </c>
-      <c r="N9" s="22">
-        <v>3</v>
+      <c r="N9">
+        <v>6</v>
       </c>
       <c r="O9" s="6">
         <f>N9/M9</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>6</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>9</v>
       </c>
       <c r="E10" s="3">
@@ -7943,10 +7955,10 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>6</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>9</v>
       </c>
       <c r="J10" s="3">
@@ -7956,25 +7968,25 @@
       <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="18">
         <v>6</v>
       </c>
-      <c r="N10" s="22">
-        <v>8</v>
+      <c r="N10">
+        <v>9</v>
       </c>
       <c r="O10" s="6">
         <f>N10/M10</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>9</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>14</v>
       </c>
       <c r="E11" s="3">
@@ -7985,10 +7997,10 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>11</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>16</v>
       </c>
       <c r="J11" s="3">
@@ -7998,25 +8010,25 @@
       <c r="L11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>9</v>
       </c>
-      <c r="N11" s="22">
-        <v>13</v>
+      <c r="N11">
+        <v>14</v>
       </c>
       <c r="O11" s="6">
         <f>N11/M11</f>
-        <v>1.4444444444444444</v>
+        <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>8</v>
       </c>
       <c r="E12" s="3">
@@ -8027,10 +8039,10 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>5</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <v>8</v>
       </c>
       <c r="J12" s="3">
@@ -8040,25 +8052,25 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>5</v>
       </c>
-      <c r="N12" s="22">
-        <v>5</v>
+      <c r="N12">
+        <v>8</v>
       </c>
       <c r="O12" s="6">
         <f>N12/M12</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>8</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>13</v>
       </c>
       <c r="E13" s="3">
@@ -8069,10 +8081,10 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>9</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>14</v>
       </c>
       <c r="J13" s="3">
@@ -8082,25 +8094,25 @@
       <c r="L13" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>8</v>
       </c>
-      <c r="N13" s="22">
-        <v>12</v>
+      <c r="N13">
+        <v>13</v>
       </c>
       <c r="O13" s="6">
         <f>N13/M13</f>
-        <v>1.5</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>9</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>15</v>
       </c>
       <c r="E14" s="3">
@@ -8111,10 +8123,10 @@
       <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <v>9</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>15</v>
       </c>
       <c r="J14" s="3">
@@ -8124,25 +8136,25 @@
       <c r="L14" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>9</v>
       </c>
-      <c r="N14" s="22">
-        <v>8</v>
+      <c r="N14">
+        <v>15</v>
       </c>
       <c r="O14" s="6">
         <f>N14/M14</f>
-        <v>0.88888888888888884</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>4</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>7</v>
       </c>
       <c r="E15" s="3">
@@ -8153,10 +8165,10 @@
       <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <v>4</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>7</v>
       </c>
       <c r="J15" s="3">
@@ -8166,25 +8178,25 @@
       <c r="L15" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>4</v>
       </c>
-      <c r="N15" s="22">
-        <v>4</v>
+      <c r="N15">
+        <v>7</v>
       </c>
       <c r="O15" s="6">
         <f>N15/M15</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>6</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>11</v>
       </c>
       <c r="E16" s="3">
@@ -8195,10 +8207,10 @@
       <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>6</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>11</v>
       </c>
       <c r="J16" s="3">
@@ -8208,25 +8220,25 @@
       <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>6</v>
       </c>
-      <c r="N16" s="22">
-        <v>6</v>
+      <c r="N16">
+        <v>11</v>
       </c>
       <c r="O16" s="6">
         <f>N16/M16</f>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>9</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>18</v>
       </c>
       <c r="E17" s="3">
@@ -8237,10 +8249,10 @@
       <c r="G17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <v>9</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>18</v>
       </c>
       <c r="J17" s="3">
@@ -8250,25 +8262,25 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>9</v>
       </c>
-      <c r="N17" s="22">
-        <v>8</v>
+      <c r="N17">
+        <v>18</v>
       </c>
       <c r="O17" s="6">
         <f>N17/M17</f>
-        <v>0.88888888888888884</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>9</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>18</v>
       </c>
       <c r="E18" s="3">
@@ -8279,10 +8291,10 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="18">
         <v>11</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>21</v>
       </c>
       <c r="J18" s="3">
@@ -8292,25 +8304,25 @@
       <c r="L18" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <v>9</v>
       </c>
-      <c r="N18" s="22">
-        <v>10</v>
+      <c r="N18">
+        <v>18</v>
       </c>
       <c r="O18" s="6">
         <f>N18/M18</f>
-        <v>1.1111111111111112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>5</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>10</v>
       </c>
       <c r="E19" s="3">
@@ -8321,10 +8333,10 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="18">
         <v>5</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>10</v>
       </c>
       <c r="J19" s="3">
@@ -8334,25 +8346,25 @@
       <c r="L19" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>5</v>
       </c>
-      <c r="N19" s="22">
-        <v>9</v>
+      <c r="N19">
+        <v>10</v>
       </c>
       <c r="O19" s="6">
         <f>N19/M19</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="18">
         <v>3</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>6</v>
       </c>
       <c r="E20" s="3">
@@ -8363,10 +8375,10 @@
       <c r="G20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="18">
         <v>3</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>7</v>
       </c>
       <c r="J20" s="3">
@@ -8376,25 +8388,25 @@
       <c r="L20" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="18">
         <v>3</v>
       </c>
-      <c r="N20" s="22">
-        <v>5</v>
+      <c r="N20">
+        <v>6</v>
       </c>
       <c r="O20" s="6">
         <f>N20/M20</f>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>4</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>10</v>
       </c>
       <c r="E21" s="3">
@@ -8405,10 +8417,10 @@
       <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="18">
         <v>4</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>10</v>
       </c>
       <c r="J21" s="3">
@@ -8418,25 +8430,25 @@
       <c r="L21" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="18">
         <v>4</v>
       </c>
-      <c r="N21" s="22">
-        <v>4</v>
+      <c r="N21">
+        <v>6</v>
       </c>
       <c r="O21" s="6">
         <f>N21/M21</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
         <v>2</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>5</v>
       </c>
       <c r="E22" s="3">
@@ -8447,10 +8459,10 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="18">
         <v>2</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <v>5</v>
       </c>
       <c r="J22" s="3">
@@ -8460,25 +8472,25 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="18">
         <v>2</v>
       </c>
-      <c r="N22" s="22">
-        <v>4</v>
+      <c r="N22">
+        <v>5</v>
       </c>
       <c r="O22" s="6">
         <f>N22/M22</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>3</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>8</v>
       </c>
       <c r="E23" s="3">
@@ -8489,10 +8501,10 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="18">
         <v>3</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>9</v>
       </c>
       <c r="J23" s="3">
@@ -8502,25 +8514,25 @@
       <c r="L23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="18">
         <v>3</v>
       </c>
-      <c r="N23" s="22">
-        <v>2</v>
+      <c r="N23">
+        <v>7</v>
       </c>
       <c r="O23" s="6">
         <f>N23/M23</f>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>3</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>8</v>
       </c>
       <c r="E24" s="3">
@@ -8531,10 +8543,10 @@
       <c r="G24" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="18">
         <v>4</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <v>9</v>
       </c>
       <c r="J24" s="3">
@@ -8544,25 +8556,25 @@
       <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>3</v>
       </c>
-      <c r="N24" s="22">
-        <v>4</v>
+      <c r="N24">
+        <v>8</v>
       </c>
       <c r="O24" s="6">
         <f>N24/M24</f>
-        <v>1.3333333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>3</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>9</v>
       </c>
       <c r="E25" s="3">
@@ -8573,10 +8585,10 @@
       <c r="G25" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="18">
         <v>3</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>10</v>
       </c>
       <c r="J25" s="3">
@@ -8586,25 +8598,25 @@
       <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>3</v>
       </c>
-      <c r="N25" s="22">
-        <v>4</v>
+      <c r="N25">
+        <v>9</v>
       </c>
       <c r="O25" s="6">
         <f>N25/M25</f>
-        <v>1.3333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>3</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>10</v>
       </c>
       <c r="E26" s="3">
@@ -8615,10 +8627,10 @@
       <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="18">
         <v>3</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>10</v>
       </c>
       <c r="J26" s="3">
@@ -8628,25 +8640,25 @@
       <c r="L26" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>3</v>
       </c>
-      <c r="N26" s="22">
-        <v>9</v>
+      <c r="N26">
+        <v>10</v>
       </c>
       <c r="O26" s="6">
         <f>N26/M26</f>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <v>2</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>7</v>
       </c>
       <c r="E27" s="3">
@@ -8657,10 +8669,10 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="18">
         <v>2</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <v>7</v>
       </c>
       <c r="J27" s="3">
@@ -8670,25 +8682,25 @@
       <c r="L27" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="18">
         <v>2</v>
       </c>
-      <c r="N27" s="22">
-        <v>2</v>
+      <c r="N27">
+        <v>7</v>
       </c>
       <c r="O27" s="6">
         <f>N27/M27</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
         <v>4</v>
       </c>
       <c r="E28" s="3">
@@ -8699,10 +8711,10 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="21">
-        <v>1</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19">
         <v>4</v>
       </c>
       <c r="J28" s="3">
@@ -8712,25 +8724,25 @@
       <c r="L28" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="21">
-        <v>1</v>
-      </c>
-      <c r="N28" s="22">
-        <v>3</v>
+      <c r="M28" s="18">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
       </c>
       <c r="O28" s="6">
         <f>N28/M28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>3</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="19">
         <v>15</v>
       </c>
       <c r="E29" s="3">
@@ -8741,10 +8753,10 @@
       <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="18">
         <v>3</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="19">
         <v>15</v>
       </c>
       <c r="J29" s="3">
@@ -8754,25 +8766,25 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="18">
         <v>3</v>
       </c>
-      <c r="N29" s="22">
-        <v>6</v>
+      <c r="N29">
+        <v>15</v>
       </c>
       <c r="O29" s="6">
         <f>N29/M29</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <v>2</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="19">
         <v>10</v>
       </c>
       <c r="E30" s="3">
@@ -8783,10 +8795,10 @@
       <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="18">
         <v>2</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="19">
         <v>10</v>
       </c>
       <c r="J30" s="3">
@@ -8796,25 +8808,25 @@
       <c r="L30" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="18">
         <v>2</v>
       </c>
-      <c r="N30" s="22">
-        <v>5</v>
+      <c r="N30">
+        <v>10</v>
       </c>
       <c r="O30" s="6">
         <f>N30/M30</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="21">
-        <v>1</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19">
         <v>5</v>
       </c>
       <c r="E31" s="3">
@@ -8825,10 +8837,10 @@
       <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
         <v>5</v>
       </c>
       <c r="J31" s="3">
@@ -8838,25 +8850,25 @@
       <c r="L31" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="21">
-        <v>1</v>
-      </c>
-      <c r="N31" s="22">
-        <v>2</v>
+      <c r="M31" s="18">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
       </c>
       <c r="O31" s="6">
         <f>N31/M31</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="18">
         <v>2</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="19">
         <v>12</v>
       </c>
       <c r="E32" s="3">
@@ -8867,10 +8879,10 @@
       <c r="G32" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="18">
         <v>2</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="19">
         <v>12</v>
       </c>
       <c r="J32" s="3">
@@ -8880,25 +8892,25 @@
       <c r="L32" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="18">
         <v>2</v>
       </c>
-      <c r="N32" s="22">
-        <v>11</v>
+      <c r="N32">
+        <v>12</v>
       </c>
       <c r="O32" s="6">
         <f>N32/M32</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19">
         <v>8</v>
       </c>
       <c r="E33" s="3">
@@ -8909,10 +8921,10 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="21">
-        <v>1</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="19">
         <v>8</v>
       </c>
       <c r="J33" s="3">
@@ -8922,25 +8934,25 @@
       <c r="L33" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="21">
-        <v>1</v>
-      </c>
-      <c r="N33" s="22">
-        <v>7</v>
+      <c r="M33" s="18">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
       </c>
       <c r="O33" s="6">
         <f>N33/M33</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="21">
-        <v>1</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
         <v>11</v>
       </c>
       <c r="E34" s="3">
@@ -8951,10 +8963,10 @@
       <c r="G34" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="21">
-        <v>1</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19">
         <v>11</v>
       </c>
       <c r="J34" s="3">
@@ -8964,15 +8976,15 @@
       <c r="L34" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="21">
-        <v>1</v>
-      </c>
-      <c r="N34" s="22">
-        <v>10</v>
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
       </c>
       <c r="O34" s="6">
         <f>N34/M34</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -9022,6 +9034,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9039,7 +9052,7 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9059,58 +9072,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
@@ -9155,10 +9168,10 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>106</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>108</v>
       </c>
       <c r="E6" s="3">
@@ -9169,10 +9182,10 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>126</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>126</v>
       </c>
       <c r="J6" s="3">
@@ -9182,25 +9195,25 @@
       <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="16">
         <v>106</v>
       </c>
-      <c r="N6" s="20">
-        <v>97</v>
+      <c r="N6">
+        <v>108</v>
       </c>
       <c r="O6" s="6">
         <f>N6/M6</f>
-        <v>0.91509433962264153</v>
+        <v>1.0188679245283019</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>46</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>49</v>
       </c>
       <c r="E7" s="3">
@@ -9211,10 +9224,10 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>89</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>89</v>
       </c>
       <c r="J7" s="3">
@@ -9224,25 +9237,25 @@
       <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>46</v>
       </c>
-      <c r="N7" s="22">
-        <v>38</v>
+      <c r="N7">
+        <v>49</v>
       </c>
       <c r="O7" s="6">
         <f>N7/M7</f>
-        <v>0.82608695652173914</v>
+        <v>1.0652173913043479</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>95</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>150</v>
       </c>
       <c r="E8" s="3">
@@ -9253,10 +9266,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>96</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>144</v>
       </c>
       <c r="J8" s="3">
@@ -9266,25 +9279,25 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>95</v>
       </c>
-      <c r="N8" s="22">
-        <v>141</v>
+      <c r="N8">
+        <v>150</v>
       </c>
       <c r="O8" s="6">
         <f>N8/M8</f>
-        <v>1.4842105263157894</v>
+        <v>1.5789473684210527</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>105</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>174</v>
       </c>
       <c r="E9" s="3">
@@ -9295,10 +9308,10 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>151</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>216</v>
       </c>
       <c r="J9" s="3">
@@ -9308,25 +9321,25 @@
       <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>105</v>
       </c>
-      <c r="N9" s="22">
-        <v>164</v>
+      <c r="N9">
+        <v>173</v>
       </c>
       <c r="O9" s="6">
         <f>N9/M9</f>
-        <v>1.5619047619047619</v>
+        <v>1.6476190476190475</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>65</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>118</v>
       </c>
       <c r="E10" s="3">
@@ -9337,10 +9350,10 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>63</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>120</v>
       </c>
       <c r="J10" s="3">
@@ -9350,25 +9363,25 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="18">
         <v>65</v>
       </c>
-      <c r="N10" s="22">
-        <v>70</v>
+      <c r="N10">
+        <v>117</v>
       </c>
       <c r="O10" s="6">
         <f>N10/M10</f>
-        <v>1.0769230769230769</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>66</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>121</v>
       </c>
       <c r="E11" s="3">
@@ -9379,10 +9392,10 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>69</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>117</v>
       </c>
       <c r="J11" s="3">
@@ -9392,25 +9405,25 @@
       <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>66</v>
       </c>
-      <c r="N11" s="22">
-        <v>112</v>
+      <c r="N11">
+        <v>121</v>
       </c>
       <c r="O11" s="6">
         <f>N11/M11</f>
-        <v>1.696969696969697</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>114</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>211</v>
       </c>
       <c r="E12" s="3">
@@ -9421,10 +9434,10 @@
       <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>111</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <v>205</v>
       </c>
       <c r="J12" s="3">
@@ -9434,25 +9447,25 @@
       <c r="L12" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>114</v>
       </c>
-      <c r="N12" s="22">
-        <v>118</v>
+      <c r="N12">
+        <v>210</v>
       </c>
       <c r="O12" s="6">
         <f>N12/M12</f>
-        <v>1.0350877192982457</v>
+        <v>1.8421052631578947</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>73</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>137</v>
       </c>
       <c r="E13" s="3">
@@ -9463,10 +9476,10 @@
       <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>71</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>139</v>
       </c>
       <c r="J13" s="3">
@@ -9476,25 +9489,25 @@
       <c r="L13" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>73</v>
       </c>
-      <c r="N13" s="22">
-        <v>74</v>
+      <c r="N13">
+        <v>137</v>
       </c>
       <c r="O13" s="6">
         <f>N13/M13</f>
-        <v>1.0136986301369864</v>
+        <v>1.8767123287671232</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>96</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>185</v>
       </c>
       <c r="E14" s="3">
@@ -9505,10 +9518,10 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <v>139</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>204</v>
       </c>
       <c r="J14" s="3">
@@ -9518,25 +9531,25 @@
       <c r="L14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>96</v>
       </c>
-      <c r="N14" s="22">
-        <v>155</v>
+      <c r="N14">
+        <v>164</v>
       </c>
       <c r="O14" s="6">
         <f>N14/M14</f>
-        <v>1.6145833333333333</v>
+        <v>1.7083333333333333</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>124</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>250</v>
       </c>
       <c r="E15" s="3">
@@ -9547,10 +9560,10 @@
       <c r="G15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <v>118</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>247</v>
       </c>
       <c r="J15" s="3">
@@ -9560,25 +9573,25 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>124</v>
       </c>
-      <c r="N15" s="22">
-        <v>120</v>
+      <c r="N15">
+        <v>248</v>
       </c>
       <c r="O15" s="6">
         <f>N15/M15</f>
-        <v>0.967741935483871</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>123</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>272</v>
       </c>
       <c r="E16" s="3">
@@ -9589,10 +9602,10 @@
       <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>184</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>370</v>
       </c>
       <c r="J16" s="3">
@@ -9602,25 +9615,25 @@
       <c r="L16" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>123</v>
       </c>
-      <c r="N16" s="22">
-        <v>134</v>
+      <c r="N16">
+        <v>270</v>
       </c>
       <c r="O16" s="6">
         <f>N16/M16</f>
-        <v>1.089430894308943</v>
+        <v>2.1951219512195124</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>51</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>115</v>
       </c>
       <c r="E17" s="3">
@@ -9631,10 +9644,10 @@
       <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <v>52</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>119</v>
       </c>
       <c r="J17" s="3">
@@ -9644,25 +9657,25 @@
       <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>51</v>
       </c>
-      <c r="N17" s="22">
-        <v>64</v>
+      <c r="N17">
+        <v>113</v>
       </c>
       <c r="O17" s="6">
         <f>N17/M17</f>
-        <v>1.2549019607843137</v>
+        <v>2.215686274509804</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>59</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>143</v>
       </c>
       <c r="E18" s="3">
@@ -9673,10 +9686,10 @@
       <c r="G18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="18">
         <v>58</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>145</v>
       </c>
       <c r="J18" s="3">
@@ -9686,25 +9699,25 @@
       <c r="L18" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <v>59</v>
       </c>
-      <c r="N18" s="22">
-        <v>135</v>
+      <c r="N18">
+        <v>142</v>
       </c>
       <c r="O18" s="6">
         <f>N18/M18</f>
-        <v>2.2881355932203391</v>
+        <v>2.406779661016949</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>36</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>90</v>
       </c>
       <c r="E19" s="3">
@@ -9715,10 +9728,10 @@
       <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="18">
         <v>40</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>108</v>
       </c>
       <c r="J19" s="3">
@@ -9728,25 +9741,25 @@
       <c r="L19" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>36</v>
       </c>
-      <c r="N19" s="22">
-        <v>79</v>
+      <c r="N19">
+        <v>90</v>
       </c>
       <c r="O19" s="6">
         <f>N19/M19</f>
-        <v>2.1944444444444446</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="18">
         <v>52</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>131</v>
       </c>
       <c r="E20" s="3">
@@ -9757,10 +9770,10 @@
       <c r="G20" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="18">
         <v>56</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>147</v>
       </c>
       <c r="J20" s="3">
@@ -9770,25 +9783,25 @@
       <c r="L20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="18">
         <v>52</v>
       </c>
-      <c r="N20" s="22">
-        <v>42</v>
+      <c r="N20">
+        <v>131</v>
       </c>
       <c r="O20" s="6">
         <f>N20/M20</f>
-        <v>0.80769230769230771</v>
+        <v>2.5192307692307692</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>45</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>160</v>
       </c>
       <c r="E21" s="3">
@@ -9799,10 +9812,10 @@
       <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="18">
         <v>57</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>164</v>
       </c>
       <c r="J21" s="3">
@@ -9812,25 +9825,25 @@
       <c r="L21" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="18">
         <v>45</v>
       </c>
-      <c r="N21" s="22">
-        <v>53</v>
+      <c r="N21">
+        <v>78</v>
       </c>
       <c r="O21" s="6">
         <f>N21/M21</f>
-        <v>1.1777777777777778</v>
+        <v>1.7333333333333334</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
         <v>24</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>87</v>
       </c>
       <c r="E22" s="3">
@@ -9841,10 +9854,10 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="18">
         <v>27</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <v>93</v>
       </c>
       <c r="J22" s="3">
@@ -9854,25 +9867,25 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="18">
         <v>24</v>
       </c>
-      <c r="N22" s="22">
-        <v>76</v>
+      <c r="N22">
+        <v>87</v>
       </c>
       <c r="O22" s="6">
         <f>N22/M22</f>
-        <v>3.1666666666666665</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>29</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>118</v>
       </c>
       <c r="E23" s="3">
@@ -9883,10 +9896,10 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="18">
         <v>29</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>146</v>
       </c>
       <c r="J23" s="3">
@@ -9896,25 +9909,25 @@
       <c r="L23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="18">
         <v>29</v>
       </c>
-      <c r="N23" s="22">
-        <v>18</v>
+      <c r="N23">
+        <v>93</v>
       </c>
       <c r="O23" s="6">
         <f>N23/M23</f>
-        <v>0.62068965517241381</v>
+        <v>3.2068965517241379</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>28</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>121</v>
       </c>
       <c r="E24" s="3">
@@ -9925,10 +9938,10 @@
       <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="18">
         <v>28</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <v>145</v>
       </c>
       <c r="J24" s="3">
@@ -9938,25 +9951,25 @@
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>28</v>
       </c>
-      <c r="N24" s="22">
-        <v>42</v>
+      <c r="N24">
+        <v>119</v>
       </c>
       <c r="O24" s="6">
         <f>N24/M24</f>
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>31</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>136</v>
       </c>
       <c r="E25" s="3">
@@ -9967,10 +9980,10 @@
       <c r="G25" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="18">
         <v>49</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>170</v>
       </c>
       <c r="J25" s="3">
@@ -9980,25 +9993,25 @@
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>31</v>
       </c>
-      <c r="N25" s="22">
-        <v>61</v>
+      <c r="N25">
+        <v>136</v>
       </c>
       <c r="O25" s="6">
         <f>N25/M25</f>
-        <v>1.967741935483871</v>
+        <v>4.387096774193548</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>23</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>126</v>
       </c>
       <c r="E26" s="3">
@@ -10009,10 +10022,10 @@
       <c r="G26" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="18">
         <v>25</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>129</v>
       </c>
       <c r="J26" s="3">
@@ -10022,25 +10035,25 @@
       <c r="L26" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>23</v>
       </c>
-      <c r="N26" s="22">
-        <v>58</v>
+      <c r="N26">
+        <v>125</v>
       </c>
       <c r="O26" s="6">
         <f>N26/M26</f>
-        <v>2.5217391304347827</v>
+        <v>5.4347826086956523</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <v>11</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>72</v>
       </c>
       <c r="E27" s="3">
@@ -10051,10 +10064,10 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="18">
         <v>11</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <v>78</v>
       </c>
       <c r="J27" s="3">
@@ -10064,25 +10077,25 @@
       <c r="L27" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="18">
         <v>11</v>
       </c>
-      <c r="N27" s="22">
-        <v>48</v>
+      <c r="N27">
+        <v>67</v>
       </c>
       <c r="O27" s="6">
         <f>N27/M27</f>
-        <v>4.3636363636363633</v>
+        <v>6.0909090909090908</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>39</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="19">
         <v>284</v>
       </c>
       <c r="E28" s="3">
@@ -10093,10 +10106,10 @@
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="18">
         <v>36</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="19">
         <v>308</v>
       </c>
       <c r="J28" s="3">
@@ -10106,25 +10119,25 @@
       <c r="L28" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="18">
         <v>39</v>
       </c>
-      <c r="N28" s="22">
-        <v>273</v>
+      <c r="N28">
+        <v>284</v>
       </c>
       <c r="O28" s="6">
         <f>N28/M28</f>
-        <v>7</v>
+        <v>7.2820512820512819</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>33</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="19">
         <v>266</v>
       </c>
       <c r="E29" s="3">
@@ -10135,10 +10148,10 @@
       <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="18">
         <v>34</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="19">
         <v>283</v>
       </c>
       <c r="J29" s="3">
@@ -10148,25 +10161,25 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="18">
         <v>33</v>
       </c>
-      <c r="N29" s="22">
-        <v>81</v>
+      <c r="N29">
+        <v>262</v>
       </c>
       <c r="O29" s="6">
         <f>N29/M29</f>
-        <v>2.4545454545454546</v>
+        <v>7.9393939393939394</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <v>23</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="19">
         <v>187</v>
       </c>
       <c r="E30" s="3">
@@ -10177,10 +10190,10 @@
       <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="18">
         <v>25</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="19">
         <v>206</v>
       </c>
       <c r="J30" s="3">
@@ -10190,25 +10203,25 @@
       <c r="L30" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="18">
         <v>23</v>
       </c>
-      <c r="N30" s="22">
-        <v>119</v>
+      <c r="N30">
+        <v>184</v>
       </c>
       <c r="O30" s="6">
         <f>N30/M30</f>
-        <v>5.1739130434782608</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="18">
         <v>24</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="19">
         <v>198</v>
       </c>
       <c r="E31" s="3">
@@ -10219,10 +10232,10 @@
       <c r="G31" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="18">
         <v>23</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="19">
         <v>214</v>
       </c>
       <c r="J31" s="3">
@@ -10232,25 +10245,25 @@
       <c r="L31" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="18">
         <v>24</v>
       </c>
-      <c r="N31" s="22">
-        <v>188</v>
+      <c r="N31">
+        <v>197</v>
       </c>
       <c r="O31" s="6">
         <f>N31/M31</f>
-        <v>7.833333333333333</v>
+        <v>8.2083333333333339</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="18">
         <v>11</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="19">
         <v>101</v>
       </c>
       <c r="E32" s="3">
@@ -10261,10 +10274,10 @@
       <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="18">
         <v>11</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="19">
         <v>118</v>
       </c>
       <c r="J32" s="3">
@@ -10274,25 +10287,25 @@
       <c r="L32" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="18">
         <v>11</v>
       </c>
-      <c r="N32" s="22">
-        <v>42</v>
+      <c r="N32">
+        <v>101</v>
       </c>
       <c r="O32" s="6">
         <f>N32/M32</f>
-        <v>3.8181818181818183</v>
+        <v>9.1818181818181817</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="18">
         <v>11</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="19">
         <v>150</v>
       </c>
       <c r="E33" s="3">
@@ -10303,10 +10316,10 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="18">
         <v>11</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="19">
         <v>159</v>
       </c>
       <c r="J33" s="3">
@@ -10316,25 +10329,25 @@
       <c r="L33" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="18">
         <v>11</v>
       </c>
-      <c r="N33" s="22">
-        <v>139</v>
+      <c r="N33">
+        <v>150</v>
       </c>
       <c r="O33" s="6">
         <f>N33/M33</f>
-        <v>12.636363636363637</v>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="18">
         <v>11</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="19">
         <v>185</v>
       </c>
       <c r="E34" s="3">
@@ -10345,10 +10358,10 @@
       <c r="G34" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="18">
         <v>11</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="19">
         <v>262</v>
       </c>
       <c r="J34" s="3">
@@ -10358,15 +10371,15 @@
       <c r="L34" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="18">
         <v>11</v>
       </c>
-      <c r="N34" s="22">
-        <v>174</v>
+      <c r="N34">
+        <v>185</v>
       </c>
       <c r="O34" s="6">
         <f>N34/M34</f>
-        <v>15.818181818181818</v>
+        <v>16.818181818181817</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -10416,6 +10429,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10433,7 +10447,7 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10453,58 +10467,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
@@ -10549,10 +10563,10 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="3">
@@ -10563,10 +10577,10 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>2</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>2</v>
       </c>
       <c r="J6" s="3">
@@ -10576,10 +10590,10 @@
       <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="16">
         <v>2</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6">
         <v>2</v>
       </c>
       <c r="O6" s="6">
@@ -10591,10 +10605,10 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="3">
@@ -10605,10 +10619,10 @@
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>1</v>
       </c>
       <c r="J7" s="3">
@@ -10618,25 +10632,25 @@
       <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>2</v>
       </c>
-      <c r="N7" s="22">
-        <v>2</v>
+      <c r="N7">
+        <v>1</v>
       </c>
       <c r="O7" s="6">
         <f>N7/M7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="3">
@@ -10647,10 +10661,10 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="21">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19">
         <v>1</v>
       </c>
       <c r="J8" s="3">
@@ -10660,10 +10674,10 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="21">
-        <v>1</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="M8" s="18">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" s="6">
@@ -10675,10 +10689,10 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="3">
@@ -10689,10 +10703,10 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="21">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
         <v>1</v>
       </c>
       <c r="J9" s="3">
@@ -10702,10 +10716,10 @@
       <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>2</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9">
         <v>2</v>
       </c>
       <c r="O9" s="6">
@@ -10717,10 +10731,10 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="3">
@@ -10731,10 +10745,10 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="21">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
         <v>1</v>
       </c>
       <c r="J10" s="3">
@@ -10744,10 +10758,10 @@
       <c r="L10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="21">
-        <v>1</v>
-      </c>
-      <c r="N10" s="22">
+      <c r="M10" s="18">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" s="6">
@@ -10759,10 +10773,10 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
         <v>1</v>
       </c>
       <c r="E11" s="3">
@@ -10773,10 +10787,10 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="21">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
         <v>1</v>
       </c>
       <c r="J11" s="3">
@@ -10786,10 +10800,10 @@
       <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="21">
-        <v>1</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="M11" s="18">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" s="6">
@@ -10801,10 +10815,10 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
         <v>2</v>
       </c>
       <c r="E12" s="3">
@@ -10815,10 +10829,10 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="21">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
         <v>1</v>
       </c>
       <c r="J12" s="3">
@@ -10828,10 +10842,10 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="21">
-        <v>1</v>
-      </c>
-      <c r="N12" s="22">
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" s="6">
@@ -10843,10 +10857,10 @@
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
         <v>2</v>
       </c>
       <c r="E13" s="3">
@@ -10857,10 +10871,10 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
         <v>1</v>
       </c>
       <c r="J13" s="3">
@@ -10870,25 +10884,25 @@
       <c r="L13" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="21">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
-        <v>1</v>
+      <c r="M13" s="18">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
       </c>
       <c r="O13" s="6">
         <f>N13/M13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>4</v>
       </c>
       <c r="E14" s="3">
@@ -10899,10 +10913,10 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="21">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
         <v>1</v>
       </c>
       <c r="J14" s="3">
@@ -10912,25 +10926,25 @@
       <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>2</v>
       </c>
-      <c r="N14" s="22">
-        <v>0</v>
+      <c r="N14">
+        <v>4</v>
       </c>
       <c r="O14" s="6">
         <f>N14/M14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
         <v>2</v>
       </c>
       <c r="E15" s="3">
@@ -10941,10 +10955,10 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="21">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
         <v>1</v>
       </c>
       <c r="J15" s="3">
@@ -10954,10 +10968,10 @@
       <c r="L15" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="21">
-        <v>1</v>
-      </c>
-      <c r="N15" s="22">
+      <c r="M15" s="18">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
       <c r="O15" s="6">
@@ -10969,10 +10983,10 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
         <v>3</v>
       </c>
       <c r="E16" s="3">
@@ -10983,10 +10997,10 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
         <v>3</v>
       </c>
       <c r="J16" s="3">
@@ -10996,25 +11010,25 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="21">
-        <v>1</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
+      <c r="M16" s="18">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16" s="6">
         <f>N16/M16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="e">
@@ -11025,10 +11039,10 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
         <v>1</v>
       </c>
       <c r="J17" s="3" t="e">
@@ -11038,11 +11052,11 @@
       <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
       </c>
       <c r="O17" s="6" t="e">
         <f>N17/M17</f>
@@ -11053,10 +11067,10 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="e">
@@ -11067,10 +11081,10 @@
       <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="e">
@@ -11080,11 +11094,11 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
       </c>
       <c r="O18" s="6" t="e">
         <f>N18/M18</f>
@@ -11095,10 +11109,10 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="e">
@@ -11109,10 +11123,10 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="e">
@@ -11122,10 +11136,10 @@
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" s="6" t="e">
@@ -11137,10 +11151,10 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="e">
@@ -11151,10 +11165,10 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="e">
@@ -11164,11 +11178,11 @@
       <c r="L20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
       </c>
       <c r="O20" s="6" t="e">
         <f>N20/M20</f>
@@ -11179,10 +11193,10 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="e">
@@ -11193,10 +11207,10 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="e">
@@ -11206,11 +11220,11 @@
       <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>1</v>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
       </c>
       <c r="O21" s="6" t="e">
         <f>N21/M21</f>
@@ -11221,10 +11235,10 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="e">
@@ -11235,10 +11249,10 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
         <v>2</v>
       </c>
       <c r="J22" s="3" t="e">
@@ -11248,11 +11262,11 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
-        <v>2</v>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
       </c>
       <c r="O22" s="6" t="e">
         <f>N22/M22</f>
@@ -11263,10 +11277,10 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="22">
+      <c r="C23" s="18">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="e">
@@ -11277,10 +11291,10 @@
       <c r="G23" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="21">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
         <v>1</v>
       </c>
       <c r="J23" s="3" t="e">
@@ -11290,10 +11304,10 @@
       <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" s="6" t="e">
@@ -11305,10 +11319,10 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="e">
@@ -11319,10 +11333,10 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
         <v>1</v>
       </c>
       <c r="J24" s="3" t="e">
@@ -11332,10 +11346,10 @@
       <c r="L24" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>1</v>
       </c>
       <c r="O24" s="6" t="e">
@@ -11347,10 +11361,10 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
         <v>4</v>
       </c>
       <c r="E25" s="3" t="e">
@@ -11361,10 +11375,10 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
         <v>1</v>
       </c>
       <c r="J25" s="3" t="e">
@@ -11374,11 +11388,11 @@
       <c r="L25" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>2</v>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
       </c>
       <c r="O25" s="6" t="e">
         <f>N25/M25</f>
@@ -11389,10 +11403,10 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="e">
@@ -11403,10 +11417,10 @@
       <c r="G26" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
         <v>1</v>
       </c>
       <c r="J26" s="3" t="e">
@@ -11416,11 +11430,11 @@
       <c r="L26" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
       </c>
       <c r="O26" s="6" t="e">
         <f>N26/M26</f>
@@ -11431,10 +11445,10 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="21">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="e">
@@ -11445,10 +11459,10 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
         <v>1</v>
       </c>
       <c r="J27" s="3" t="e">
@@ -11458,10 +11472,10 @@
       <c r="L27" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>1</v>
       </c>
       <c r="O27" s="6" t="e">
@@ -11473,10 +11487,10 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="e">
@@ -11487,10 +11501,10 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
         <v>2</v>
       </c>
       <c r="J28" s="3" t="e">
@@ -11500,10 +11514,10 @@
       <c r="L28" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22">
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
       <c r="O28" s="6" t="e">
@@ -11515,10 +11529,10 @@
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="21">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="e">
@@ -11529,10 +11543,10 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
         <v>1</v>
       </c>
       <c r="J29" s="3" t="e">
@@ -11542,10 +11556,10 @@
       <c r="L29" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>1</v>
       </c>
       <c r="O29" s="6" t="e">
@@ -11557,10 +11571,10 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="21">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="e">
@@ -11571,10 +11585,10 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="e">
@@ -11584,11 +11598,11 @@
       <c r="L30" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>0</v>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
       </c>
       <c r="O30" s="6" t="e">
         <f>N30/M30</f>
@@ -11599,10 +11613,10 @@
       <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="21">
-        <v>0</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="e">
@@ -11613,10 +11627,10 @@
       <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
         <v>1</v>
       </c>
       <c r="J31" s="3">
@@ -11626,10 +11640,10 @@
       <c r="L31" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" s="6" t="e">
@@ -11641,10 +11655,10 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="e">
@@ -11655,10 +11669,10 @@
       <c r="G32" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="21">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="e">
@@ -11668,11 +11682,11 @@
       <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>0</v>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
       <c r="O32" s="6" t="e">
         <f>N32/M32</f>
@@ -11683,10 +11697,10 @@
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="21">
-        <v>0</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="e">
@@ -11697,10 +11711,10 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
         <v>1</v>
       </c>
       <c r="J33" s="3" t="e">
@@ -11710,10 +11724,10 @@
       <c r="L33" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="21">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>1</v>
       </c>
       <c r="O33" s="6" t="e">
@@ -11725,10 +11739,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21">
-        <v>0</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
         <v>1</v>
       </c>
       <c r="E34" s="3" t="e">
@@ -11739,10 +11753,10 @@
       <c r="G34" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
         <v>1</v>
       </c>
       <c r="J34" s="3" t="e">
@@ -11752,10 +11766,10 @@
       <c r="L34" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="21">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>1</v>
       </c>
       <c r="O34" s="6" t="e">
@@ -11827,8 +11841,8 @@
   </sheetPr>
   <dimension ref="B1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11848,58 +11862,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
@@ -11944,10 +11958,10 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>3</v>
       </c>
       <c r="E6" s="3">
@@ -11958,10 +11972,10 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>3</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>3</v>
       </c>
       <c r="J6" s="3">
@@ -11971,10 +11985,10 @@
       <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <v>3</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6">
         <v>3</v>
       </c>
       <c r="O6" s="6">
@@ -11986,10 +12000,10 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>4</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>4</v>
       </c>
       <c r="E7" s="3">
@@ -12000,10 +12014,10 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>5</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>5</v>
       </c>
       <c r="J7" s="3">
@@ -12013,10 +12027,10 @@
       <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>4</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" s="6">
@@ -12028,10 +12042,10 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>3</v>
       </c>
       <c r="E8" s="3">
@@ -12042,10 +12056,10 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>3</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>3</v>
       </c>
       <c r="J8" s="3">
@@ -12055,10 +12069,10 @@
       <c r="L8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>3</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8">
         <v>3</v>
       </c>
       <c r="O8" s="6">
@@ -12070,10 +12084,10 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -12084,10 +12098,10 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>5</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>9</v>
       </c>
       <c r="J9" s="3">
@@ -12097,25 +12111,25 @@
       <c r="L9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>4</v>
       </c>
-      <c r="N9" s="22">
-        <v>0</v>
+      <c r="N9">
+        <v>7</v>
       </c>
       <c r="O9" s="6">
         <f>N9/M9</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>4</v>
       </c>
       <c r="E10" s="3">
@@ -12126,10 +12140,10 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>4</v>
       </c>
       <c r="J10" s="3">
@@ -12139,25 +12153,25 @@
       <c r="L10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="18">
         <v>2</v>
       </c>
-      <c r="N10" s="22">
-        <v>2</v>
+      <c r="N10">
+        <v>4</v>
       </c>
       <c r="O10" s="6">
         <f>N10/M10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>5</v>
       </c>
       <c r="E11" s="3">
@@ -12168,10 +12182,10 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>2</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>5</v>
       </c>
       <c r="J11" s="3">
@@ -12181,10 +12195,10 @@
       <c r="L11" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>2</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11">
         <v>5</v>
       </c>
       <c r="O11" s="6">
@@ -12196,10 +12210,10 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
         <v>3</v>
       </c>
       <c r="E12" s="3">
@@ -12210,10 +12224,10 @@
       <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="21">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
         <v>3</v>
       </c>
       <c r="J12" s="3">
@@ -12223,25 +12237,25 @@
       <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="21">
-        <v>1</v>
-      </c>
-      <c r="N12" s="22">
-        <v>1</v>
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
       </c>
       <c r="O12" s="6">
         <f>N12/M12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
         <v>4</v>
       </c>
       <c r="E13" s="3">
@@ -12252,10 +12266,10 @@
       <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
         <v>4</v>
       </c>
       <c r="J13" s="3">
@@ -12265,25 +12279,25 @@
       <c r="L13" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="21">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
-        <v>2</v>
+      <c r="M13" s="18">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
       </c>
       <c r="O13" s="6">
         <f>N13/M13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
         <v>4</v>
       </c>
       <c r="E14" s="3">
@@ -12294,10 +12308,10 @@
       <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="21">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
         <v>4</v>
       </c>
       <c r="J14" s="3">
@@ -12307,10 +12321,10 @@
       <c r="L14" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="21">
-        <v>1</v>
-      </c>
-      <c r="N14" s="22">
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" s="6">
@@ -12322,10 +12336,10 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
         <v>4</v>
       </c>
       <c r="E15" s="3">
@@ -12336,10 +12350,10 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="21">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
         <v>4</v>
       </c>
       <c r="J15" s="3">
@@ -12349,10 +12363,10 @@
       <c r="L15" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="21">
-        <v>1</v>
-      </c>
-      <c r="N15" s="22">
+      <c r="M15" s="18">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" s="6">
@@ -12364,10 +12378,10 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
         <v>5</v>
       </c>
       <c r="E16" s="3">
@@ -12378,10 +12392,10 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
         <v>5</v>
       </c>
       <c r="J16" s="3">
@@ -12391,25 +12405,25 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="21">
-        <v>1</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
+      <c r="M16" s="18">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16" s="6">
         <f>N16/M16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
         <v>6</v>
       </c>
       <c r="E17" s="3" t="e">
@@ -12420,10 +12434,10 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
         <v>6</v>
       </c>
       <c r="J17" s="3" t="e">
@@ -12433,11 +12447,11 @@
       <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
       </c>
       <c r="O17" s="6" t="e">
         <f>N17/M17</f>
@@ -12448,10 +12462,10 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="e">
@@ -12462,10 +12476,10 @@
       <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
         <v>9</v>
       </c>
       <c r="J18" s="3" t="e">
@@ -12475,11 +12489,11 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9</v>
       </c>
       <c r="O18" s="6" t="e">
         <f>N18/M18</f>
@@ -12490,10 +12504,10 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
         <v>7</v>
       </c>
       <c r="E19" s="3" t="e">
@@ -12504,10 +12518,10 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
         <v>7</v>
       </c>
       <c r="J19" s="3" t="e">
@@ -12517,10 +12531,10 @@
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>7</v>
       </c>
       <c r="O19" s="6" t="e">
@@ -12532,10 +12546,10 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
         <v>5</v>
       </c>
       <c r="E20" s="3" t="e">
@@ -12546,10 +12560,10 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
         <v>6</v>
       </c>
       <c r="J20" s="3" t="e">
@@ -12559,11 +12573,11 @@
       <c r="L20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
       </c>
       <c r="O20" s="6" t="e">
         <f>N20/M20</f>
@@ -12574,10 +12588,10 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
         <v>6</v>
       </c>
       <c r="E21" s="3" t="e">
@@ -12588,10 +12602,10 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
         <v>7</v>
       </c>
       <c r="J21" s="3" t="e">
@@ -12601,11 +12615,11 @@
       <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>2</v>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
       </c>
       <c r="O21" s="6" t="e">
         <f>N21/M21</f>
@@ -12616,10 +12630,10 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
         <v>12</v>
       </c>
       <c r="E22" s="3" t="e">
@@ -12630,10 +12644,10 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
         <v>12</v>
       </c>
       <c r="J22" s="3" t="e">
@@ -12643,26 +12657,26 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
-        <v>4</v>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
       </c>
       <c r="O22" s="6" t="e">
         <f>N22/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="23"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="22">
+      <c r="C23" s="18">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
         <v>5</v>
       </c>
       <c r="E23" s="3" t="e">
@@ -12673,10 +12687,10 @@
       <c r="G23" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="21">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
         <v>5</v>
       </c>
       <c r="J23" s="3" t="e">
@@ -12686,11 +12700,11 @@
       <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>1</v>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
       </c>
       <c r="O23" s="6" t="e">
         <f>N23/M23</f>
@@ -12701,10 +12715,10 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
         <v>8</v>
       </c>
       <c r="E24" s="3" t="e">
@@ -12715,10 +12729,10 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
         <v>8</v>
       </c>
       <c r="J24" s="3" t="e">
@@ -12728,10 +12742,10 @@
       <c r="L24" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>8</v>
       </c>
       <c r="O24" s="6" t="e">
@@ -12743,10 +12757,10 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
         <v>7</v>
       </c>
       <c r="E25" s="3" t="e">
@@ -12757,10 +12771,10 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
         <v>7</v>
       </c>
       <c r="J25" s="3" t="e">
@@ -12770,11 +12784,11 @@
       <c r="L25" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>3</v>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
       </c>
       <c r="O25" s="6" t="e">
         <f>N25/M25</f>
@@ -12785,10 +12799,10 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="e">
@@ -12799,10 +12813,10 @@
       <c r="G26" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
         <v>2</v>
       </c>
       <c r="J26" s="3" t="e">
@@ -12812,11 +12826,11 @@
       <c r="L26" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
       </c>
       <c r="O26" s="6" t="e">
         <f>N26/M26</f>
@@ -12827,10 +12841,10 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="21">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
         <v>7</v>
       </c>
       <c r="E27" s="3" t="e">
@@ -12841,10 +12855,10 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
         <v>7</v>
       </c>
       <c r="J27" s="3" t="e">
@@ -12854,10 +12868,10 @@
       <c r="L27" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>7</v>
       </c>
       <c r="O27" s="6" t="e">
@@ -12869,10 +12883,10 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="e">
@@ -12883,10 +12897,10 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
         <v>2</v>
       </c>
       <c r="J28" s="3" t="e">
@@ -12896,10 +12910,10 @@
       <c r="L28" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22">
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
       <c r="O28" s="6" t="e">
@@ -12911,10 +12925,10 @@
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="21">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
         <v>5</v>
       </c>
       <c r="E29" s="3" t="e">
@@ -12925,10 +12939,10 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
         <v>5</v>
       </c>
       <c r="J29" s="3" t="e">
@@ -12938,10 +12952,10 @@
       <c r="L29" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>5</v>
       </c>
       <c r="O29" s="6" t="e">
@@ -12953,10 +12967,10 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="21">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
         <v>4</v>
       </c>
       <c r="E30" s="3" t="e">
@@ -12967,10 +12981,10 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
         <v>4</v>
       </c>
       <c r="J30" s="3" t="e">
@@ -12980,11 +12994,11 @@
       <c r="L30" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>0</v>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
       </c>
       <c r="O30" s="6" t="e">
         <f>N30/M30</f>
@@ -12995,10 +13009,10 @@
       <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="21">
-        <v>0</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="e">
@@ -13009,10 +13023,10 @@
       <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
         <v>1</v>
       </c>
       <c r="J31" s="3">
@@ -13022,10 +13036,10 @@
       <c r="L31" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" s="6" t="e">
@@ -13037,10 +13051,10 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="e">
@@ -13051,10 +13065,10 @@
       <c r="G32" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="21">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="e">
@@ -13064,11 +13078,11 @@
       <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>0</v>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
       </c>
       <c r="O32" s="6" t="e">
         <f>N32/M32</f>
@@ -13079,10 +13093,10 @@
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="21">
-        <v>0</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="e">
@@ -13093,10 +13107,10 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
         <v>2</v>
       </c>
       <c r="J33" s="3" t="e">
@@ -13106,10 +13120,10 @@
       <c r="L33" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="21">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>2</v>
       </c>
       <c r="O33" s="6" t="e">
@@ -13121,10 +13135,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21">
-        <v>0</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="e">
@@ -13135,10 +13149,10 @@
       <c r="G34" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
         <v>3</v>
       </c>
       <c r="J34" s="3" t="e">
@@ -13148,10 +13162,10 @@
       <c r="L34" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="21">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>2</v>
       </c>
       <c r="O34" s="6" t="e">
@@ -13206,7 +13220,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13223,8 +13237,8 @@
   </sheetPr>
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13244,58 +13258,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" customHeight="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="2:18" ht="16" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
@@ -13340,10 +13354,10 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>54</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>54</v>
       </c>
       <c r="E6" s="3">
@@ -13354,10 +13368,10 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>80</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>80</v>
       </c>
       <c r="J6" s="3">
@@ -13367,10 +13381,10 @@
       <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <v>54</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6">
         <v>54</v>
       </c>
       <c r="O6" s="6">
@@ -13382,10 +13396,10 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>66</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>67</v>
       </c>
       <c r="E7" s="3">
@@ -13396,10 +13410,10 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>88</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>88</v>
       </c>
       <c r="J7" s="3">
@@ -13409,10 +13423,10 @@
       <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>66</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7">
         <v>67</v>
       </c>
       <c r="O7" s="6">
@@ -13424,10 +13438,10 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>45</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>65</v>
       </c>
       <c r="E8" s="3">
@@ -13438,10 +13452,10 @@
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>68</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>68</v>
       </c>
       <c r="J8" s="3">
@@ -13451,10 +13465,10 @@
       <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>45</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8">
         <v>45</v>
       </c>
       <c r="O8" s="6">
@@ -13466,10 +13480,10 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>72</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>128</v>
       </c>
       <c r="E9" s="3">
@@ -13480,10 +13494,10 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>113</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>211</v>
       </c>
       <c r="J9" s="3">
@@ -13493,25 +13507,25 @@
       <c r="L9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>72</v>
       </c>
-      <c r="N9" s="22">
-        <v>0</v>
+      <c r="N9">
+        <v>127</v>
       </c>
       <c r="O9" s="6">
         <f>N9/M9</f>
-        <v>0</v>
+        <v>1.7638888888888888</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>22</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>69</v>
       </c>
       <c r="E10" s="3">
@@ -13522,10 +13536,10 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>22</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>73</v>
       </c>
       <c r="J10" s="3">
@@ -13535,25 +13549,25 @@
       <c r="L10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="18">
         <v>22</v>
       </c>
-      <c r="N10" s="22">
-        <v>72</v>
+      <c r="N10">
+        <v>68</v>
       </c>
       <c r="O10" s="6">
         <f>N10/M10</f>
-        <v>3.2727272727272729</v>
+        <v>3.0909090909090908</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>24</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>102</v>
       </c>
       <c r="E11" s="3">
@@ -13564,10 +13578,10 @@
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>31</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>122</v>
       </c>
       <c r="J11" s="3">
@@ -13577,25 +13591,25 @@
       <c r="L11" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>24</v>
       </c>
-      <c r="N11" s="22">
-        <v>24</v>
+      <c r="N11">
+        <v>102</v>
       </c>
       <c r="O11" s="6">
         <f>N11/M11</f>
-        <v>1</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>11</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>51</v>
       </c>
       <c r="E12" s="3">
@@ -13606,10 +13620,10 @@
       <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>11</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <v>60</v>
       </c>
       <c r="J12" s="3">
@@ -13619,15 +13633,15 @@
       <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>11</v>
       </c>
-      <c r="N12" s="22">
-        <v>12</v>
+      <c r="N12">
+        <v>50</v>
       </c>
       <c r="O12" s="6">
         <f>N12/M12</f>
-        <v>1.0909090909090908</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="R12" s="2"/>
     </row>
@@ -13635,10 +13649,10 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>11</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>61</v>
       </c>
       <c r="E13" s="3">
@@ -13649,10 +13663,10 @@
       <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>11</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>68</v>
       </c>
       <c r="J13" s="3">
@@ -13662,25 +13676,25 @@
       <c r="L13" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>11</v>
       </c>
-      <c r="N13" s="22">
-        <v>24</v>
+      <c r="N13">
+        <v>60</v>
       </c>
       <c r="O13" s="6">
         <f>N13/M13</f>
-        <v>2.1818181818181817</v>
+        <v>5.4545454545454541</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>9</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>51</v>
       </c>
       <c r="E14" s="3">
@@ -13691,10 +13705,10 @@
       <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <v>11</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>54</v>
       </c>
       <c r="J14" s="3">
@@ -13704,25 +13718,25 @@
       <c r="L14" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>9</v>
       </c>
-      <c r="N14" s="22">
-        <v>53</v>
+      <c r="N14">
+        <v>51</v>
       </c>
       <c r="O14" s="6">
         <f>N14/M14</f>
-        <v>5.8888888888888893</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>9</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>53</v>
       </c>
       <c r="E15" s="3">
@@ -13733,10 +13747,10 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <v>11</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>54</v>
       </c>
       <c r="J15" s="3">
@@ -13746,25 +13760,25 @@
       <c r="L15" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>9</v>
       </c>
-      <c r="N15" s="22">
-        <v>55</v>
+      <c r="N15">
+        <v>53</v>
       </c>
       <c r="O15" s="6">
         <f>N15/M15</f>
-        <v>6.1111111111111107</v>
+        <v>5.8888888888888893</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>14</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>96</v>
       </c>
       <c r="E16" s="3">
@@ -13775,10 +13789,10 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>26</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>102</v>
       </c>
       <c r="J16" s="3">
@@ -13788,25 +13802,25 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>14</v>
       </c>
-      <c r="N16" s="22">
-        <v>0</v>
+      <c r="N16">
+        <v>14</v>
       </c>
       <c r="O16" s="6">
         <f>N16/M16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
         <v>82</v>
       </c>
       <c r="E17" s="3" t="e">
@@ -13817,10 +13831,10 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
         <v>89</v>
       </c>
       <c r="J17" s="3" t="e">
@@ -13830,11 +13844,11 @@
       <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>81</v>
       </c>
       <c r="O17" s="6" t="e">
         <f>N17/M17</f>
@@ -13845,10 +13859,10 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
         <v>119</v>
       </c>
       <c r="E18" s="3" t="e">
@@ -13859,10 +13873,10 @@
       <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
         <v>129</v>
       </c>
       <c r="J18" s="3" t="e">
@@ -13872,11 +13886,11 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>117</v>
       </c>
       <c r="O18" s="6" t="e">
         <f>N18/M18</f>
@@ -13887,10 +13901,10 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
         <v>244</v>
       </c>
       <c r="E19" s="3" t="e">
@@ -13901,10 +13915,10 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
         <v>272</v>
       </c>
       <c r="J19" s="3" t="e">
@@ -13914,10 +13928,10 @@
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>244</v>
       </c>
       <c r="O19" s="6" t="e">
@@ -13929,10 +13943,10 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
         <v>89</v>
       </c>
       <c r="E20" s="3" t="e">
@@ -13943,10 +13957,10 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
         <v>117</v>
       </c>
       <c r="J20" s="3" t="e">
@@ -13956,11 +13970,11 @@
       <c r="L20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>64</v>
       </c>
       <c r="O20" s="6" t="e">
         <f>N20/M20</f>
@@ -13971,10 +13985,10 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
         <v>93</v>
       </c>
       <c r="E21" s="3" t="e">
@@ -13985,10 +13999,10 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
         <v>117</v>
       </c>
       <c r="J21" s="3" t="e">
@@ -13998,11 +14012,11 @@
       <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>25</v>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>91</v>
       </c>
       <c r="O21" s="6" t="e">
         <f>N21/M21</f>
@@ -14013,10 +14027,10 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
         <v>226</v>
       </c>
       <c r="E22" s="3" t="e">
@@ -14027,10 +14041,10 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
         <v>245</v>
       </c>
       <c r="J22" s="3" t="e">
@@ -14040,11 +14054,11 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
-        <v>52</v>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>222</v>
       </c>
       <c r="O22" s="6" t="e">
         <f>N22/M22</f>
@@ -14055,10 +14069,10 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="22">
+      <c r="C23" s="18">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
         <v>61</v>
       </c>
       <c r="E23" s="3" t="e">
@@ -14069,10 +14083,10 @@
       <c r="G23" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="21">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
         <v>68</v>
       </c>
       <c r="J23" s="3" t="e">
@@ -14082,11 +14096,11 @@
       <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>9</v>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>61</v>
       </c>
       <c r="O23" s="6" t="e">
         <f>N23/M23</f>
@@ -14097,10 +14111,10 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
         <v>125</v>
       </c>
       <c r="E24" s="3" t="e">
@@ -14111,10 +14125,10 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
         <v>145</v>
       </c>
       <c r="J24" s="3" t="e">
@@ -14124,11 +14138,11 @@
       <c r="L24" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
-        <v>127</v>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>125</v>
       </c>
       <c r="O24" s="6" t="e">
         <f>N24/M24</f>
@@ -14139,10 +14153,10 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
         <v>111</v>
       </c>
       <c r="E25" s="3" t="e">
@@ -14153,10 +14167,10 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
         <v>122</v>
       </c>
       <c r="J25" s="3" t="e">
@@ -14166,11 +14180,11 @@
       <c r="L25" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>54</v>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>108</v>
       </c>
       <c r="O25" s="6" t="e">
         <f>N25/M25</f>
@@ -14181,10 +14195,10 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
         <v>48</v>
       </c>
       <c r="E26" s="3" t="e">
@@ -14195,10 +14209,10 @@
       <c r="G26" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
         <v>64</v>
       </c>
       <c r="J26" s="3" t="e">
@@ -14208,11 +14222,11 @@
       <c r="L26" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>48</v>
       </c>
       <c r="O26" s="6" t="e">
         <f>N26/M26</f>
@@ -14223,10 +14237,10 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="21">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
         <v>132</v>
       </c>
       <c r="E27" s="3" t="e">
@@ -14237,10 +14251,10 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
         <v>210</v>
       </c>
       <c r="J27" s="3" t="e">
@@ -14250,10 +14264,10 @@
       <c r="L27" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>132</v>
       </c>
       <c r="O27" s="6" t="e">
@@ -14265,10 +14279,10 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
         <v>38</v>
       </c>
       <c r="E28" s="3" t="e">
@@ -14279,10 +14293,10 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
         <v>45</v>
       </c>
       <c r="J28" s="3" t="e">
@@ -14292,11 +14306,11 @@
       <c r="L28" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22">
-        <v>25</v>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>33</v>
       </c>
       <c r="O28" s="6" t="e">
         <f>N28/M28</f>
@@ -14307,10 +14321,10 @@
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="21">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
         <v>99</v>
       </c>
       <c r="E29" s="3" t="e">
@@ -14321,10 +14335,10 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
         <v>110</v>
       </c>
       <c r="J29" s="3" t="e">
@@ -14334,10 +14348,10 @@
       <c r="L29" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>99</v>
       </c>
       <c r="O29" s="6" t="e">
@@ -14349,10 +14363,10 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="21">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
         <v>57</v>
       </c>
       <c r="E30" s="3" t="e">
@@ -14363,10 +14377,10 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
         <v>62</v>
       </c>
       <c r="J30" s="3" t="e">
@@ -14376,11 +14390,11 @@
       <c r="L30" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>0</v>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>56</v>
       </c>
       <c r="O30" s="6" t="e">
         <f>N30/M30</f>
@@ -14391,10 +14405,10 @@
       <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="21">
-        <v>0</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="e">
@@ -14405,10 +14419,10 @@
       <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="18">
         <v>44</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="19">
         <v>44</v>
       </c>
       <c r="J31" s="3">
@@ -14418,10 +14432,10 @@
       <c r="L31" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" s="6" t="e">
@@ -14433,10 +14447,10 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
         <v>64</v>
       </c>
       <c r="E32" s="3" t="e">
@@ -14447,10 +14461,10 @@
       <c r="G32" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="21">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
         <v>84</v>
       </c>
       <c r="J32" s="3" t="e">
@@ -14460,11 +14474,11 @@
       <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>0</v>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>64</v>
       </c>
       <c r="O32" s="6" t="e">
         <f>N32/M32</f>
@@ -14475,10 +14489,10 @@
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="21">
-        <v>0</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
         <v>39</v>
       </c>
       <c r="E33" s="3" t="e">
@@ -14489,10 +14503,10 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
         <v>48</v>
       </c>
       <c r="J33" s="3" t="e">
@@ -14502,10 +14516,10 @@
       <c r="L33" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="21">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>39</v>
       </c>
       <c r="O33" s="6" t="e">
@@ -14517,10 +14531,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21">
-        <v>0</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
         <v>28</v>
       </c>
       <c r="E34" s="3" t="e">
@@ -14531,10 +14545,10 @@
       <c r="G34" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
         <v>49</v>
       </c>
       <c r="J34" s="3" t="e">
@@ -14544,10 +14558,10 @@
       <c r="L34" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="21">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>28</v>
       </c>
       <c r="O34" s="6" t="e">
@@ -14602,6 +14616,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
